--- a/xlsx/global.xlsx
+++ b/xlsx/global.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trist/Desktop/golang/src/mlgs/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mlgs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346CB888-9A01-5A4C-9719-2358655C8275}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="3520" windowWidth="22940" windowHeight="9520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16275" yWindow="3525" windowWidth="22935" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -43,41 +42,33 @@
   </si>
   <si>
     <t>配置说明</t>
-  </si>
-  <si>
-    <t>读取任务配置表person，value为person表配置id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>#int64</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取room配表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一场比赛开始所需要的人数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>服务端主动断开无活动客户端时间(单位:秒)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无活动下服务端发送心跳包间隔时间(单位:秒)</t>
+    <t>Tristone's Tetris Demo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端校验码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳检测间隔(单位:秒)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,24 +439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.125" customWidth="1"/>
     <col min="3" max="3" width="115" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,9 +486,9 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -523,7 +514,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -553,69 +544,31 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -624,95 +577,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="1"/>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -722,12 +649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,12 +663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/global.xlsx
+++ b/xlsx/global.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>心跳检测间隔(单位:秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间最大玩家数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间最大旁观者</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +451,7 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,12 +586,26 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1024</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
